--- a/Logs/test.xlsx
+++ b/Logs/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,23 +461,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6232.67</t>
+          <t>6357.02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2054</v>
+        <v>2094</v>
       </c>
       <c r="C2" t="n">
-        <v>910</v>
+        <v>832</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>-610</v>
+        <v>-688</v>
       </c>
       <c r="F2" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -488,23 +488,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6234.32</t>
+          <t>6358.34</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2052</v>
+        <v>2096</v>
       </c>
       <c r="C3" t="n">
-        <v>910</v>
+        <v>828</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>-610</v>
+        <v>-690</v>
       </c>
       <c r="F3" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -515,23 +515,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6235.50</t>
+          <t>6359.52</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2054</v>
+        <v>2096</v>
       </c>
       <c r="C4" t="n">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>-612</v>
+        <v>-691</v>
       </c>
       <c r="F4" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -542,23 +542,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6236.70</t>
+          <t>6360.74</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2052</v>
+        <v>2096</v>
       </c>
       <c r="C5" t="n">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>-611</v>
+        <v>-691</v>
       </c>
       <c r="F5" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -569,23 +569,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6237.89</t>
+          <t>6362.00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2052</v>
+        <v>2090</v>
       </c>
       <c r="C6" t="n">
-        <v>912</v>
+        <v>834</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>-611</v>
+        <v>-690</v>
       </c>
       <c r="F6" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -596,23 +596,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6239.20</t>
+          <t>6363.15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2052</v>
+        <v>2094</v>
       </c>
       <c r="C7" t="n">
-        <v>914</v>
+        <v>832</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>-610</v>
+        <v>-689</v>
       </c>
       <c r="F7" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -623,23 +623,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6240.39</t>
+          <t>6364.41</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2050</v>
+        <v>2092</v>
       </c>
       <c r="C8" t="n">
-        <v>914</v>
+        <v>834</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>-608</v>
+        <v>-688</v>
       </c>
       <c r="F8" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -650,23 +650,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6241.71</t>
+          <t>6365.52</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2050</v>
+        <v>2094</v>
       </c>
       <c r="C9" t="n">
-        <v>916</v>
+        <v>838</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>-606</v>
+        <v>-686</v>
       </c>
       <c r="F9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -677,23 +677,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6242.90</t>
+          <t>6366.72</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2050</v>
+        <v>2090</v>
       </c>
       <c r="C10" t="n">
-        <v>916</v>
+        <v>842</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>-605</v>
+        <v>-684</v>
       </c>
       <c r="F10" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -704,23 +704,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6244.04</t>
+          <t>6367.92</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2048</v>
+        <v>2092</v>
       </c>
       <c r="C11" t="n">
-        <v>920</v>
+        <v>838</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>-604</v>
+        <v>-682</v>
       </c>
       <c r="F11" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -731,23 +731,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6245.27</t>
+          <t>6369.11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2048</v>
+        <v>2092</v>
       </c>
       <c r="C12" t="n">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>-602</v>
+        <v>-680</v>
       </c>
       <c r="F12" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -758,20 +758,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6246.52</t>
+          <t>6370.32</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2046</v>
+        <v>2090</v>
       </c>
       <c r="C13" t="n">
-        <v>922</v>
+        <v>840</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>-601</v>
+        <v>-680</v>
       </c>
       <c r="F13" t="n">
         <v>144</v>
@@ -785,20 +785,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6247.76</t>
+          <t>6371.51</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2046</v>
+        <v>2088</v>
       </c>
       <c r="C14" t="n">
-        <v>924</v>
+        <v>842</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>-599</v>
+        <v>-680</v>
       </c>
       <c r="F14" t="n">
         <v>144</v>
@@ -812,23 +812,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6249.00</t>
+          <t>6372.72</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2046</v>
+        <v>2086</v>
       </c>
       <c r="C15" t="n">
-        <v>926</v>
+        <v>846</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>-597</v>
+        <v>-678</v>
       </c>
       <c r="F15" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -839,20 +839,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6250.19</t>
+          <t>6373.90</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2046</v>
+        <v>2090</v>
       </c>
       <c r="C16" t="n">
-        <v>924</v>
+        <v>844</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
-        <v>-596</v>
+        <v>-677</v>
       </c>
       <c r="F16" t="n">
         <v>145</v>
@@ -866,23 +866,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6251.53</t>
+          <t>6375.15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2044</v>
+        <v>2088</v>
       </c>
       <c r="C17" t="n">
-        <v>926</v>
+        <v>846</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>-595</v>
+        <v>-676</v>
       </c>
       <c r="F17" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -893,23 +893,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6252.78</t>
+          <t>6376.39</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2042</v>
+        <v>2086</v>
       </c>
       <c r="C18" t="n">
-        <v>930</v>
+        <v>848</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
-        <v>-594</v>
+        <v>-674</v>
       </c>
       <c r="F18" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -920,23 +920,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6254.01</t>
+          <t>6377.62</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2040</v>
+        <v>2086</v>
       </c>
       <c r="C19" t="n">
-        <v>930</v>
+        <v>850</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>-593</v>
+        <v>-673</v>
       </c>
       <c r="F19" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -947,23 +947,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6255.27</t>
+          <t>6378.81</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2040</v>
+        <v>2084</v>
       </c>
       <c r="C20" t="n">
-        <v>932</v>
+        <v>850</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>-591</v>
+        <v>-672</v>
       </c>
       <c r="F20" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -974,20 +974,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6256.52</t>
+          <t>6380.01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2042</v>
+        <v>2086</v>
       </c>
       <c r="C21" t="n">
-        <v>932</v>
+        <v>852</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>-589</v>
+        <v>-670</v>
       </c>
       <c r="F21" t="n">
         <v>145</v>
@@ -1001,23 +1001,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6257.78</t>
+          <t>6381.21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2042</v>
+        <v>2086</v>
       </c>
       <c r="C22" t="n">
-        <v>932</v>
+        <v>852</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
-        <v>-589</v>
+        <v>-669</v>
       </c>
       <c r="F22" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1028,23 +1028,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6259.02</t>
+          <t>6382.51</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2040</v>
+        <v>2084</v>
       </c>
       <c r="C23" t="n">
-        <v>934</v>
+        <v>856</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>-588</v>
+        <v>-668</v>
       </c>
       <c r="F23" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1055,23 +1055,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6260.27</t>
+          <t>6383.76</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2040</v>
+        <v>2086</v>
       </c>
       <c r="C24" t="n">
-        <v>936</v>
+        <v>868</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
-        <v>-587</v>
+        <v>-663</v>
       </c>
       <c r="F24" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1082,20 +1082,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6261.52</t>
+          <t>6384.92</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2038</v>
+        <v>2082</v>
       </c>
       <c r="C25" t="n">
-        <v>938</v>
+        <v>856</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
-        <v>-585</v>
+        <v>-662</v>
       </c>
       <c r="F25" t="n">
         <v>144</v>
@@ -1109,23 +1109,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6262.75</t>
+          <t>6386.11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2036</v>
+        <v>2086</v>
       </c>
       <c r="C26" t="n">
-        <v>942</v>
+        <v>856</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
-        <v>-583</v>
+        <v>-661</v>
       </c>
       <c r="F26" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1136,24 +1136,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6264.01</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2038</v>
-      </c>
-      <c r="C27" t="n">
-        <v>938</v>
-      </c>
+          <t>6387.30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
-        <v>-582</v>
-      </c>
-      <c r="F27" t="n">
-        <v>145</v>
-      </c>
+        <v>-660</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>['Right', 'Down']</t>
@@ -1163,23 +1157,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6265.25</t>
+          <t>6388.50</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2036</v>
+        <v>2082</v>
       </c>
       <c r="C28" t="n">
-        <v>942</v>
+        <v>866</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>-580</v>
+        <v>-661</v>
       </c>
       <c r="F28" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1190,23 +1184,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6266.51</t>
+          <t>6389.72</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2036</v>
+        <v>2076</v>
       </c>
       <c r="C29" t="n">
-        <v>946</v>
+        <v>858</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>-578</v>
+        <v>-660</v>
       </c>
       <c r="F29" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1217,23 +1211,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6267.77</t>
+          <t>6390.90</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2034</v>
+        <v>2080</v>
       </c>
       <c r="C30" t="n">
-        <v>946</v>
+        <v>866</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>-577</v>
+        <v>-657</v>
       </c>
       <c r="F30" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1244,23 +1238,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6269.01</t>
+          <t>6392.11</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2030</v>
+        <v>2076</v>
       </c>
       <c r="C31" t="n">
-        <v>946</v>
+        <v>874</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
-        <v>-575</v>
+        <v>-654</v>
       </c>
       <c r="F31" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1271,23 +1265,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6270.26</t>
+          <t>6393.47</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2034</v>
+        <v>2082</v>
       </c>
       <c r="C32" t="n">
-        <v>948</v>
+        <v>878</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>-574</v>
+        <v>-651</v>
       </c>
       <c r="F32" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1298,24 +1292,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6271.50</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2032</v>
-      </c>
-      <c r="C33" t="n">
-        <v>950</v>
-      </c>
+          <t>6394.70</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E33" t="n">
-        <v>-573</v>
-      </c>
-      <c r="F33" t="n">
-        <v>144</v>
-      </c>
+        <v>-648</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>['Right', 'Down']</t>
@@ -1325,23 +1313,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6272.69</t>
+          <t>6395.89</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2034</v>
+        <v>2076</v>
       </c>
       <c r="C34" t="n">
-        <v>950</v>
+        <v>864</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>-572</v>
+        <v>-648</v>
       </c>
       <c r="F34" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1352,23 +1340,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6274.03</t>
+          <t>6397.11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2032</v>
+        <v>2078</v>
       </c>
       <c r="C35" t="n">
-        <v>952</v>
+        <v>880</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E35" t="n">
-        <v>-570</v>
+        <v>-646</v>
       </c>
       <c r="F35" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1379,24 +1367,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6275.25</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C36" t="n">
-        <v>954</v>
-      </c>
+          <t>6398.45</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E36" t="n">
-        <v>-569</v>
-      </c>
-      <c r="F36" t="n">
-        <v>143</v>
-      </c>
+        <v>-648</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>['Right', 'Down']</t>
@@ -1406,24 +1388,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6276.50</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C37" t="n">
-        <v>954</v>
-      </c>
+          <t>6399.68</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E37" t="n">
-        <v>-568</v>
-      </c>
-      <c r="F37" t="n">
-        <v>144</v>
-      </c>
+        <v>-648</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>['Right', 'Down']</t>
@@ -1433,23 +1409,23 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6277.69</t>
+          <t>6400.98</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2032</v>
+        <v>2062</v>
       </c>
       <c r="C38" t="n">
-        <v>960</v>
+        <v>882</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E38" t="n">
-        <v>-565</v>
+        <v>-639</v>
       </c>
       <c r="F38" t="n">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1460,23 +1436,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6278.90</t>
+          <t>6402.24</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2022</v>
+        <v>2070</v>
       </c>
       <c r="C39" t="n">
-        <v>960</v>
+        <v>890</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>-563</v>
+        <v>-634</v>
       </c>
       <c r="F39" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1487,81 +1463,2604 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6280.08</t>
+          <t>6403.46</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2028</v>
+        <v>2070</v>
       </c>
       <c r="C40" t="n">
-        <v>958</v>
+        <v>878</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>-562</v>
+        <v>-637</v>
       </c>
       <c r="F40" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right', 'Down']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6281.30</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C41" t="n">
-        <v>956</v>
-      </c>
+          <t>6404.72</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E41" t="n">
-        <v>-562</v>
-      </c>
-      <c r="F41" t="n">
-        <v>146</v>
-      </c>
+        <v>-637</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Down']</t>
+          <t>['Right', 'Down']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6282.49</t>
+          <t>6405.97</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2028</v>
+        <v>2072</v>
       </c>
       <c r="C42" t="n">
+        <v>882</v>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-637</v>
+      </c>
+      <c r="F42" t="n">
+        <v>141</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6407.24</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2068</v>
+      </c>
+      <c r="C43" t="n">
+        <v>876</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-642</v>
+      </c>
+      <c r="F43" t="n">
+        <v>147</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6408.47</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C44" t="n">
+        <v>886</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-639</v>
+      </c>
+      <c r="F44" t="n">
+        <v>141</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6409.72</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C45" t="n">
+        <v>888</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-637</v>
+      </c>
+      <c r="F45" t="n">
+        <v>136</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6410.90</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>42</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-637</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6412.14</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C47" t="n">
+        <v>884</v>
+      </c>
+      <c r="D47" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-634</v>
+      </c>
+      <c r="F47" t="n">
+        <v>146</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6413.38</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2076</v>
+      </c>
+      <c r="C48" t="n">
+        <v>894</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-632</v>
+      </c>
+      <c r="F48" t="n">
+        <v>133</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6414.65</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C49" t="n">
+        <v>886</v>
+      </c>
+      <c r="D49" t="n">
+        <v>45</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-632</v>
+      </c>
+      <c r="F49" t="n">
+        <v>152</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6415.90</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2066</v>
+      </c>
+      <c r="C50" t="n">
+        <v>890</v>
+      </c>
+      <c r="D50" t="n">
+        <v>43</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-632</v>
+      </c>
+      <c r="F50" t="n">
+        <v>143</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6417.05</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C51" t="n">
+        <v>890</v>
+      </c>
+      <c r="D51" t="n">
+        <v>42</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-630</v>
+      </c>
+      <c r="F51" t="n">
+        <v>143</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6418.28</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2066</v>
+      </c>
+      <c r="C52" t="n">
+        <v>888</v>
+      </c>
+      <c r="D52" t="n">
+        <v>39</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-632</v>
+      </c>
+      <c r="F52" t="n">
+        <v>147</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6419.51</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C53" t="n">
+        <v>890</v>
+      </c>
+      <c r="D53" t="n">
+        <v>37</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-631</v>
+      </c>
+      <c r="F53" t="n">
+        <v>146</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6420.71</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2068</v>
+      </c>
+      <c r="C54" t="n">
+        <v>890</v>
+      </c>
+      <c r="D54" t="n">
+        <v>37</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-631</v>
+      </c>
+      <c r="F54" t="n">
+        <v>149</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6422.02</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2064</v>
+      </c>
+      <c r="C55" t="n">
+        <v>898</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-629</v>
+      </c>
+      <c r="F55" t="n">
+        <v>141</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6423.20</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2066</v>
+      </c>
+      <c r="C56" t="n">
+        <v>892</v>
+      </c>
+      <c r="D56" t="n">
+        <v>37</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-628</v>
+      </c>
+      <c r="F56" t="n">
+        <v>149</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6424.41</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2062</v>
+      </c>
+      <c r="C57" t="n">
+        <v>896</v>
+      </c>
+      <c r="D57" t="n">
+        <v>37</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-626</v>
+      </c>
+      <c r="F57" t="n">
+        <v>146</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6425.77</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C58" t="n">
+        <v>898</v>
+      </c>
+      <c r="D58" t="n">
+        <v>35</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-624</v>
+      </c>
+      <c r="F58" t="n">
+        <v>145</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6427.02</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C59" t="n">
+        <v>900</v>
+      </c>
+      <c r="D59" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-624</v>
+      </c>
+      <c r="F59" t="n">
+        <v>144</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6428.21</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C60" t="n">
+        <v>902</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-621</v>
+      </c>
+      <c r="F60" t="n">
+        <v>142</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6429.52</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C61" t="n">
+        <v>904</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-619</v>
+      </c>
+      <c r="F61" t="n">
+        <v>143</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6430.70</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C62" t="n">
+        <v>904</v>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-618</v>
+      </c>
+      <c r="F62" t="n">
+        <v>144</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6431.93</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C63" t="n">
+        <v>902</v>
+      </c>
+      <c r="D63" t="n">
+        <v>30</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-617</v>
+      </c>
+      <c r="F63" t="n">
+        <v>148</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6433.16</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C64" t="n">
+        <v>904</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-617</v>
+      </c>
+      <c r="F64" t="n">
+        <v>145</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>6434.31</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C65" t="n">
+        <v>906</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-616</v>
+      </c>
+      <c r="F65" t="n">
+        <v>146</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6435.66</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C66" t="n">
+        <v>906</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-616</v>
+      </c>
+      <c r="F66" t="n">
+        <v>146</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6436.91</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C67" t="n">
+        <v>908</v>
+      </c>
+      <c r="D67" t="n">
+        <v>27</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-614</v>
+      </c>
+      <c r="F67" t="n">
+        <v>146</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6438.28</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C68" t="n">
+        <v>914</v>
+      </c>
+      <c r="D68" t="n">
+        <v>26</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-612</v>
+      </c>
+      <c r="F68" t="n">
+        <v>142</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6439.52</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C69" t="n">
+        <v>914</v>
+      </c>
+      <c r="D69" t="n">
+        <v>24</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-610</v>
+      </c>
+      <c r="F69" t="n">
+        <v>142</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>6440.70</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C70" t="n">
+        <v>916</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-607</v>
+      </c>
+      <c r="F70" t="n">
+        <v>141</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6442.01</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C71" t="n">
+        <v>916</v>
+      </c>
+      <c r="D71" t="n">
+        <v>22</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-605</v>
+      </c>
+      <c r="F71" t="n">
+        <v>143</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6443.37</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C72" t="n">
+        <v>914</v>
+      </c>
+      <c r="D72" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-605</v>
+      </c>
+      <c r="F72" t="n">
+        <v>146</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>6444.64</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C73" t="n">
+        <v>918</v>
+      </c>
+      <c r="D73" t="n">
+        <v>21</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-604</v>
+      </c>
+      <c r="F73" t="n">
+        <v>144</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>6445.86</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C74" t="n">
+        <v>918</v>
+      </c>
+      <c r="D74" t="n">
+        <v>21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-604</v>
+      </c>
+      <c r="F74" t="n">
+        <v>143</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>6447.11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C75" t="n">
+        <v>920</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-603</v>
+      </c>
+      <c r="F75" t="n">
+        <v>142</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>6448.47</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C76" t="n">
+        <v>924</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-600</v>
+      </c>
+      <c r="F76" t="n">
+        <v>142</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6449.72</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C77" t="n">
+        <v>924</v>
+      </c>
+      <c r="D77" t="n">
+        <v>18</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-599</v>
+      </c>
+      <c r="F77" t="n">
+        <v>143</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6450.91</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C78" t="n">
+        <v>924</v>
+      </c>
+      <c r="D78" t="n">
+        <v>16</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-597</v>
+      </c>
+      <c r="F78" t="n">
+        <v>139</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>6452.21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C79" t="n">
+        <v>926</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-596</v>
+      </c>
+      <c r="F79" t="n">
+        <v>143</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>6453.58</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C80" t="n">
+        <v>926</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-595</v>
+      </c>
+      <c r="F80" t="n">
+        <v>143</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>6454.82</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C81" t="n">
+        <v>930</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-594</v>
+      </c>
+      <c r="F81" t="n">
+        <v>142</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>6456.01</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C82" t="n">
+        <v>924</v>
+      </c>
+      <c r="D82" t="n">
+        <v>16</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-594</v>
+      </c>
+      <c r="F82" t="n">
+        <v>147</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>6457.22</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C83" t="n">
+        <v>926</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-594</v>
+      </c>
+      <c r="F83" t="n">
+        <v>146</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6458.40</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C84" t="n">
+        <v>930</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-593</v>
+      </c>
+      <c r="F84" t="n">
+        <v>144</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>6459.62</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C85" t="n">
+        <v>932</v>
+      </c>
+      <c r="D85" t="n">
+        <v>14</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-592</v>
+      </c>
+      <c r="F85" t="n">
+        <v>144</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6460.81</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C86" t="n">
+        <v>930</v>
+      </c>
+      <c r="D86" t="n">
+        <v>14</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-591</v>
+      </c>
+      <c r="F86" t="n">
+        <v>146</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>6462.11</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C87" t="n">
+        <v>936</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-588</v>
+      </c>
+      <c r="F87" t="n">
+        <v>142</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>6463.48</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C88" t="n">
+        <v>932</v>
+      </c>
+      <c r="D88" t="n">
+        <v>12</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-588</v>
+      </c>
+      <c r="F88" t="n">
+        <v>146</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>6464.72</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C89" t="n">
+        <v>934</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-587</v>
+      </c>
+      <c r="F89" t="n">
+        <v>146</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6465.88</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C90" t="n">
+        <v>936</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-586</v>
+      </c>
+      <c r="F90" t="n">
+        <v>145</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>6467.11</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C91" t="n">
+        <v>940</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-585</v>
+      </c>
+      <c r="F91" t="n">
+        <v>143</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6468.28</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C92" t="n">
+        <v>942</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-582</v>
+      </c>
+      <c r="F92" t="n">
+        <v>142</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6469.51</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C93" t="n">
+        <v>948</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-579</v>
+      </c>
+      <c r="F93" t="n">
+        <v>138</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>6470.87</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C94" t="n">
+        <v>932</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-580</v>
+      </c>
+      <c r="F94" t="n">
+        <v>154</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6472.15</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C95" t="n">
+        <v>950</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-577</v>
+      </c>
+      <c r="F95" t="n">
+        <v>137</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>6473.40</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C96" t="n">
+        <v>942</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-577</v>
+      </c>
+      <c r="F96" t="n">
+        <v>146</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>6474.54</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C97" t="n">
+        <v>948</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-577</v>
+      </c>
+      <c r="F97" t="n">
+        <v>141</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>6475.76</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-574</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6477.02</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-575</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6478.29</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C100" t="n">
+        <v>954</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-569</v>
+      </c>
+      <c r="F100" t="n">
+        <v>139</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>6479.51</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C101" t="n">
+        <v>948</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-569</v>
+      </c>
+      <c r="F101" t="n">
+        <v>147</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6480.87</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C102" t="n">
+        <v>970</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-563</v>
+      </c>
+      <c r="F102" t="n">
+        <v>126</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6482.14</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C103" t="n">
+        <v>958</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-563</v>
+      </c>
+      <c r="F103" t="n">
+        <v>140</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6483.37</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C104" t="n">
+        <v>958</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-562</v>
+      </c>
+      <c r="F104" t="n">
+        <v>137</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6484.58</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-558</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>6485.88</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C106" t="n">
+        <v>952</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-564</v>
+      </c>
+      <c r="F106" t="n">
+        <v>150</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6487.12</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C107" t="n">
+        <v>964</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-562</v>
+      </c>
+      <c r="F107" t="n">
+        <v>134</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['Left', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6488.27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-562</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['Left', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6489.58</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C109" t="n">
         <v>960</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D109" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-562</v>
+      </c>
+      <c r="F109" t="n">
+        <v>139</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>['Left', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6490.97</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
         <v>-1</v>
       </c>
-      <c r="E42" t="n">
-        <v>-562</v>
-      </c>
-      <c r="F42" t="n">
-        <v>143</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="E110" t="n">
+        <v>-558</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['Left', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6492.31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-560</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
         <is>
           <t>['Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6493.80</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C112" t="n">
+        <v>966</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-557</v>
+      </c>
+      <c r="F112" t="n">
+        <v>138</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6495.07</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6496.36</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6497.62</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C115" t="n">
+        <v>966</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F115" t="n">
+        <v>146</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6498.78</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>6500.01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>6501.20</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>14</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-554</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>6502.41</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6503.58</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>6504.80</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>6505.97</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6507.18</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6508.45</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6509.68</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6510.98</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C126" t="n">
+        <v>968</v>
+      </c>
+      <c r="D126" t="n">
+        <v>22</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-552</v>
+      </c>
+      <c r="F126" t="n">
+        <v>136</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>6512.20</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>22</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-552</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>6513.45</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>22</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-552</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>6514.72</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>22</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-552</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>6515.96</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>['Right', 'Down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>6516.85</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>6518.05</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>6518.93</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>6520.08</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>6521.29</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>6522.66</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>6523.71</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>6524.86</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6526.01</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>6526.99</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>6527.92</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>6529.07</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>6530.01</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>6531.16</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>6532.11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>6533.16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>6534.11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>6535.26</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>6536.40</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
